--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC5_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC5_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2861549013068754</v>
+        <v>0.2925651577171319</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.28615490130687543, 'ngram_match_score': 0.09525467092815929, 'weighted_ngram_match_score': 0.16819782554602689, 'syntax_match_score': 0.496551724137931, 'dataflow_match_score': 0.38461538461538464}</t>
+          <t>{'codebleu': 0.2925651577171319, 'ngram_match_score': 0.09525467092815929, 'weighted_ngram_match_score': 0.16819782554602689, 'syntax_match_score': 0.496551724137931, 'dataflow_match_score': 0.41025641025641024}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC5_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC5_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2925651577171319</v>
+        <v>0.2893600295120036</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2925651577171319, 'ngram_match_score': 0.09525467092815929, 'weighted_ngram_match_score': 0.16819782554602689, 'syntax_match_score': 0.496551724137931, 'dataflow_match_score': 0.41025641025641024}</t>
+          <t>{'codebleu': 0.2893600295120036, 'ngram_match_score': 0.09525467092815929, 'weighted_ngram_match_score': 0.16819782554602689, 'syntax_match_score': 0.496551724137931, 'dataflow_match_score': 0.3974358974358974}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
